--- a/tools/luban/Datas/__beans__.xlsx
+++ b/tools/luban/Datas/__beans__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DBBFCF-3762-44F8-80CE-92392715AB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED66893C-04A0-4187-80F9-94ECFA3A4FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -131,6 +131,14 @@
   </si>
   <si>
     <t>对于随从，value为id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardRange.Reward</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>array,int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -698,7 +706,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -958,7 +966,9 @@
     </row>
     <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -966,8 +976,12 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="J11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="9"/>
@@ -982,10 +996,16 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="M12" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="N12" s="7"/>
     </row>
     <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.2">

--- a/tools/luban/Datas/__beans__.xlsx
+++ b/tools/luban/Datas/__beans__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED66893C-04A0-4187-80F9-94ECFA3A4FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE878FB-953B-40E4-91F7-DD5F0B0CC6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -139,6 +139,14 @@
   </si>
   <si>
     <t>array,int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardWeight.Reward</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -706,7 +714,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1010,7 +1018,9 @@
     </row>
     <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1018,8 +1028,12 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
@@ -1034,10 +1048,16 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="J14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="M14" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -1050,8 +1070,12 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="J15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="11"/>

--- a/tools/luban/Datas/__beans__.xlsx
+++ b/tools/luban/Datas/__beans__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE878FB-953B-40E4-91F7-DD5F0B0CC6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AD8B82-8C33-4B03-9EC2-B1DE9D248BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -714,7 +714,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1038,7 +1038,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1048,11 +1048,11 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>31</v>
+      <c r="J14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6" t="s">
@@ -1070,10 +1070,10 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="10" t="s">
+      <c r="J15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="6" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="10"/>
